--- a/DONE/ESMAEL, EMRAN.xlsx
+++ b/DONE/ESMAEL, EMRAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B9B11E-0C69-4D76-9779-5E35A31BA90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE EARN'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE EARN'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -242,11 +241,14 @@
   <si>
     <t>FL(2-0-0)</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -628,17 +630,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -648,6 +647,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,27 +665,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -911,7 +892,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -980,6 +960,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1132,7 +1133,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1180,7 +1180,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1223,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1413,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1633,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1698,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1741,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +1816,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2002,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2068,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2126,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2192,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2248,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2323,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2366,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2432,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2488,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,25 +2584,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{333AB5B2-B52C-42AA-B024-F58CBA3215A0}" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{31E821C2-FE97-415D-9BCA-59A81EA0A21C}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C51E880F-094D-4BAE-B50F-C62830D6FFBF}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{0053A115-7BC7-44B1-8C92-A812B5ED9BB2}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{541CB7BA-3E3D-4C34-BA11-577E8229B521}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{A799C96D-2297-4882-842C-A9E1EFFD2313}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C3E666AF-3322-49A9-9700-79BB65086311}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{6B4E77EC-5157-4D9F-BB6F-8EBA835E9355}" name="EARNED " dataDxfId="0">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8E909810-0FD8-4E4C-A221-145146347F93}" name="Absence Undertime  W/ Pay" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{6D0040E4-1697-4188-8E0B-A363DA639FC0}" name="BALANCE " dataDxfId="18">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{7B1CB51B-4EB0-42DB-9BF8-E0DE5C3563FA}" name="Absence Undertime  W/O Pay" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{9F2B0D66-EE61-4655-8A01-3FB0CDC74B78}" name="REMARKS" dataDxfId="16"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2614,25 +2614,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K127" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K127" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="7">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="5">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="3">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2939,7 +2939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2949,7 +2949,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2957,34 +2957,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D176A387-1902-4E84-B2F8-DF6D571972C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A64" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2996,16 +2996,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3014,16 +3014,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3034,16 +3034,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3051,7 +3051,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3064,24 +3064,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3125,7 +3125,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>47.25</v>
+        <v>53.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3135,12 +3135,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>71.25</v>
+        <v>77.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>49</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3508,7 +3508,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3574,7 +3574,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>61</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>55</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4014,7 +4014,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>56</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4236,7 +4236,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4276,7 +4276,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4316,7 +4316,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4422,40 +4422,50 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="40">
+        <v>44866</v>
+      </c>
       <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="40">
+        <v>44896</v>
+      </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4470,55 +4480,67 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="40">
+        <v>44927</v>
+      </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4534,7 +4556,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4550,7 +4572,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4566,7 +4588,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4582,7 +4604,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4598,7 +4620,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4614,7 +4636,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4630,7 +4652,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4646,7 +4668,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4662,7 +4684,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4678,7 +4700,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4694,7 +4716,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4710,7 +4732,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4726,7 +4748,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4742,7 +4764,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4758,7 +4780,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4774,7 +4796,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4790,7 +4812,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4806,7 +4828,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4822,7 +4844,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4838,7 +4860,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4854,7 +4876,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4870,7 +4892,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4886,7 +4908,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4902,7 +4924,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4918,7 +4940,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4934,7 +4956,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4950,7 +4972,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4966,7 +4988,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4982,7 +5004,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4998,7 +5020,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5014,7 +5036,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5030,7 +5052,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5046,7 +5068,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5062,7 +5084,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5078,7 +5100,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5094,7 +5116,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5110,7 +5132,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5126,7 +5148,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5142,7 +5164,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5158,7 +5180,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5174,7 +5196,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5190,7 +5212,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5206,7 +5228,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5222,7 +5244,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5238,7 +5260,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5254,7 +5276,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5270,7 +5292,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5286,7 +5308,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5302,7 +5324,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5318,7 +5340,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5334,7 +5356,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5350,7 +5372,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5366,7 +5388,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5382,7 +5404,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5398,7 +5420,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5416,28 +5438,28 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{220CD744-32BD-4759-9357-9B65B4389B3A}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00BF6D45-CC0E-4FE1-B85D-3F653697D9BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5445,8 +5467,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                            OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5455,34 +5477,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E31" sqref="E30:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5494,16 +5516,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5512,16 +5534,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5532,16 +5554,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5549,7 +5571,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5562,24 +5584,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5614,7 +5636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5638,7 +5660,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -5660,7 +5682,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43252</v>
       </c>
@@ -5684,7 +5706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>49</v>
       </c>
@@ -5702,7 +5724,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>52</v>
@@ -5724,7 +5746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43739</v>
       </c>
@@ -5748,7 +5770,7 @@
         <v>43764</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>55</v>
       </c>
@@ -5766,7 +5788,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44317</v>
       </c>
@@ -5790,7 +5812,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>56</v>
       </c>
@@ -5808,7 +5830,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44682</v>
       </c>
@@ -5832,7 +5854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44713</v>
       </c>
@@ -5856,7 +5878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5872,7 +5894,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5888,7 +5910,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5904,7 +5926,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5920,7 +5942,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5936,7 +5958,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5952,7 +5974,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5968,7 +5990,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5984,7 +6006,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6000,7 +6022,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6016,7 +6038,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6032,7 +6054,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6048,7 +6070,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6064,7 +6086,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6080,7 +6102,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6096,7 +6118,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6112,7 +6134,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6128,7 +6150,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6144,7 +6166,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6160,7 +6182,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6176,7 +6198,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6192,7 +6214,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6208,7 +6230,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6224,7 +6246,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6240,7 +6262,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6256,7 +6278,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6272,7 +6294,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6288,7 +6310,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6304,7 +6326,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6320,7 +6342,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6336,7 +6358,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6352,7 +6374,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6368,7 +6390,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6384,7 +6406,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6400,7 +6422,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6416,7 +6438,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6432,7 +6454,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6448,7 +6470,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6464,7 +6486,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6480,7 +6502,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6496,7 +6518,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6512,7 +6534,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6528,7 +6550,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6544,7 +6566,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6560,7 +6582,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6576,7 +6598,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6592,7 +6614,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6608,7 +6630,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6624,7 +6646,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6640,7 +6662,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6656,7 +6678,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6672,7 +6694,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6688,7 +6710,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6704,7 +6726,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6720,7 +6742,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6736,7 +6758,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6752,7 +6774,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6768,7 +6790,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6784,7 +6806,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6800,7 +6822,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6816,7 +6838,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6832,7 +6854,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6848,7 +6870,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6864,7 +6886,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6880,7 +6902,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6896,7 +6918,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6912,7 +6934,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6928,7 +6950,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6944,7 +6966,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6960,7 +6982,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6976,7 +6998,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6992,7 +7014,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7008,7 +7030,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7024,7 +7046,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7040,7 +7062,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7056,7 +7078,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7072,7 +7094,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7088,7 +7110,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7104,7 +7126,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7120,7 +7142,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7136,7 +7158,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7152,7 +7174,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7168,7 +7190,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7184,7 +7206,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7200,7 +7222,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7216,7 +7238,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7232,7 +7254,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7248,7 +7270,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7264,7 +7286,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7280,7 +7302,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7296,7 +7318,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7312,7 +7334,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7328,7 +7350,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7344,7 +7366,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7360,7 +7382,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7376,7 +7398,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7392,7 +7414,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7408,7 +7430,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7424,7 +7446,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7440,7 +7462,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7456,7 +7478,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7472,7 +7494,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7488,7 +7510,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7504,7 +7526,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7520,7 +7542,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7536,7 +7558,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7552,7 +7574,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7568,7 +7590,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="15"/>
       <c r="C127" s="42"/>
@@ -7599,10 +7621,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7625,28 +7647,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -7659,7 +7681,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7688,7 +7710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>37.127000000000002</v>
       </c>
@@ -7712,17 +7734,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7743,7 +7765,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7770,7 +7792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7796,7 +7818,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7822,7 +7844,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7848,7 +7870,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7874,7 +7896,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7900,7 +7922,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7926,7 +7948,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7952,7 +7974,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7972,7 +7994,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7992,7 +8014,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8012,7 +8034,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8033,7 +8055,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8054,7 +8076,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8075,7 +8097,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8096,7 +8118,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8117,7 +8139,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8138,7 +8160,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8159,7 +8181,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8180,7 +8202,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8201,7 +8223,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8222,7 +8244,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8243,7 +8265,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8264,7 +8286,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8285,7 +8307,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8306,7 +8328,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8327,7 +8349,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8348,7 +8370,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8369,7 +8391,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8390,7 +8412,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8411,7 +8433,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8432,7 +8454,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8441,7 +8463,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8450,7 +8472,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8459,7 +8481,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8468,7 +8490,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8477,7 +8499,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8486,7 +8508,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8495,7 +8517,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8504,7 +8526,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8513,7 +8535,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8522,7 +8544,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8531,7 +8553,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8540,7 +8562,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8549,7 +8571,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8558,7 +8580,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8567,7 +8589,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8576,7 +8598,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8585,7 +8607,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8594,7 +8616,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8603,7 +8625,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8612,7 +8634,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8621,7 +8643,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8630,7 +8652,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8639,7 +8661,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8648,7 +8670,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8657,7 +8679,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8666,7 +8688,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8675,7 +8697,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8684,7 +8706,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8693,7 +8715,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
